--- a/app/ux.xlsx
+++ b/app/ux.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilde\Desktop\Desarrollo Cambiaria\AppCambiaria\app\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$143</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="158">
   <si>
     <t>glosaRenglon</t>
   </si>
@@ -485,13 +493,21 @@
   </si>
   <si>
     <t xml:space="preserve">PAGO CHEQUE: D-21-99280     , BENEFICIARIO: MARCO ANTONIO QUISPE PATTY                                                                                                                                                                                                                                      </t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="3">
+    <numFmt numFmtId="168" formatCode="#,##0.0000000"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00000000"/>
+    <numFmt numFmtId="170" formatCode="#,##0.000000000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,22 +559,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -600,7 +628,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -632,9 +660,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -666,6 +695,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -841,14 +871,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K143"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:M147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="L39" sqref="L39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="12" max="12" width="26.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -880,7 +919,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -915,7 +954,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -950,7 +989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -985,7 +1024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1020,7 +1059,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1055,7 +1094,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1090,7 +1129,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1125,7 +1164,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1160,7 +1199,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1195,7 +1234,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1230,7 +1269,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1265,7 +1304,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1300,7 +1339,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1335,7 +1374,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1370,7 +1409,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1405,7 +1444,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1440,7 +1479,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1475,7 +1514,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1510,7 +1549,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1545,7 +1584,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1579,8 +1618,12 @@
       <c r="K21">
         <v>498</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21" s="2">
+        <f>H21/6.86</f>
+        <v>2.0699708454810493</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1614,8 +1657,12 @@
       <c r="K22">
         <v>410</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22" s="2">
+        <f t="shared" ref="L22:L40" si="0">H22/6.86</f>
+        <v>904.89941690962087</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1649,8 +1696,12 @@
       <c r="K23">
         <v>410</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23" s="2">
+        <f t="shared" si="0"/>
+        <v>1297.4504373177842</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1684,8 +1735,12 @@
       <c r="K24">
         <v>306</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24" s="2">
+        <f t="shared" si="0"/>
+        <v>26.32944606413994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1719,8 +1774,12 @@
       <c r="K25">
         <v>405</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25" s="2">
+        <f t="shared" si="0"/>
+        <v>245.46938775510205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1754,8 +1813,12 @@
       <c r="K26">
         <v>385</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26" s="2">
+        <f t="shared" si="0"/>
+        <v>287807.03061224485</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1789,8 +1852,15 @@
       <c r="K27">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27" s="2">
+        <f t="shared" si="0"/>
+        <v>9.2099125364431487</v>
+      </c>
+      <c r="M27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1813,7 +1883,7 @@
         <v>78</v>
       </c>
       <c r="H28">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I28" t="s">
         <v>122</v>
@@ -1824,8 +1894,12 @@
       <c r="K28">
         <v>406</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0204081632653062E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1859,8 +1933,12 @@
       <c r="K29">
         <v>406</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29" s="2">
+        <f t="shared" si="0"/>
+        <v>327.87026239067052</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1894,8 +1972,12 @@
       <c r="K30">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30" s="2">
+        <f t="shared" si="0"/>
+        <v>9.2099125364431487</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1929,8 +2011,12 @@
       <c r="K31">
         <v>22</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31" s="2">
+        <f t="shared" si="0"/>
+        <v>26.639941690962097</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1953,7 +2039,7 @@
         <v>92</v>
       </c>
       <c r="H32">
-        <v>18687.67</v>
+        <v>18687.669999999998</v>
       </c>
       <c r="I32" t="s">
         <v>122</v>
@@ -1964,8 +2050,15 @@
       <c r="K32">
         <v>17</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32" s="2">
+        <f t="shared" si="0"/>
+        <v>2724.1501457725944</v>
+      </c>
+      <c r="M32" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1999,8 +2092,12 @@
       <c r="K33">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="L33" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1195335276967928</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2023,7 +2120,7 @@
         <v>67</v>
       </c>
       <c r="H34">
-        <v>887.6799999999999</v>
+        <v>887.68</v>
       </c>
       <c r="I34" t="s">
         <v>122</v>
@@ -2034,8 +2131,15 @@
       <c r="K34">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="L34" s="2">
+        <f t="shared" si="0"/>
+        <v>129.39941690962098</v>
+      </c>
+      <c r="M34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2058,7 +2162,7 @@
         <v>94</v>
       </c>
       <c r="H35">
-        <v>9.880000000000001</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="I35" t="s">
         <v>122</v>
@@ -2069,8 +2173,15 @@
       <c r="K35">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="L35" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4402332361516035</v>
+      </c>
+      <c r="M35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2104,8 +2215,15 @@
       <c r="K36">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="L36" s="2">
+        <f t="shared" si="0"/>
+        <v>2.6603498542274053</v>
+      </c>
+      <c r="M36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2139,8 +2257,12 @@
       <c r="K37">
         <v>21</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="L37" s="2">
+        <f t="shared" si="0"/>
+        <v>291200.86005830899</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2174,8 +2296,12 @@
       <c r="K38">
         <v>23</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="L38" s="2">
+        <f t="shared" si="0"/>
+        <v>18998.250728862971</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2198,7 +2324,7 @@
         <v>97</v>
       </c>
       <c r="H39">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I39" t="s">
         <v>122</v>
@@ -2209,8 +2335,15 @@
       <c r="K39">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="L39" s="4">
+        <f t="shared" si="0"/>
+        <v>2.0408163265306124E-2</v>
+      </c>
+      <c r="M39" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2233,7 +2366,7 @@
         <v>77</v>
       </c>
       <c r="H40">
-        <v>6194787.52</v>
+        <v>6194787.5199999996</v>
       </c>
       <c r="I40" t="s">
         <v>122</v>
@@ -2244,8 +2377,15 @@
       <c r="K40">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="L40" s="2">
+        <f t="shared" si="0"/>
+        <v>903030.25072886283</v>
+      </c>
+      <c r="M40" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2268,7 +2408,7 @@
         <v>77</v>
       </c>
       <c r="H41">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I41" t="s">
         <v>123</v>
@@ -2280,7 +2420,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2312,7 +2452,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2344,7 +2484,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2364,7 +2504,7 @@
         <v>69</v>
       </c>
       <c r="H44">
-        <v>266.85</v>
+        <v>266.85000000000002</v>
       </c>
       <c r="I44" t="s">
         <v>125</v>
@@ -2376,7 +2516,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2384,7 +2524,7 @@
         <v>65</v>
       </c>
       <c r="D45">
-        <v>266.85</v>
+        <v>266.85000000000002</v>
       </c>
       <c r="E45">
         <v>69</v>
@@ -2396,7 +2536,7 @@
         <v>100</v>
       </c>
       <c r="H45">
-        <v>266.85</v>
+        <v>266.85000000000002</v>
       </c>
       <c r="I45" t="s">
         <v>125</v>
@@ -2408,7 +2548,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2440,7 +2580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2475,7 +2615,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2507,7 +2647,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2539,7 +2679,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2571,7 +2711,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2603,7 +2743,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2635,7 +2775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2670,7 +2810,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2702,7 +2842,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2734,7 +2874,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2769,7 +2909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2804,7 +2944,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2836,7 +2976,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2871,7 +3011,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2906,7 +3046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2941,7 +3081,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2973,7 +3113,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3008,7 +3148,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3040,7 +3180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3075,7 +3215,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3107,7 +3247,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3139,7 +3279,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3171,7 +3311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3206,7 +3346,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3238,7 +3378,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3270,7 +3410,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3281,7 +3421,7 @@
         <v>64</v>
       </c>
       <c r="D72">
-        <v>303.54</v>
+        <v>303.54000000000002</v>
       </c>
       <c r="E72">
         <v>53</v>
@@ -3293,7 +3433,7 @@
         <v>67</v>
       </c>
       <c r="H72">
-        <v>2351.72</v>
+        <v>2351.7199999999998</v>
       </c>
       <c r="I72" t="s">
         <v>133</v>
@@ -3305,7 +3445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3340,7 +3480,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3372,7 +3512,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3383,7 +3523,7 @@
         <v>65</v>
       </c>
       <c r="D75">
-        <v>2351.72</v>
+        <v>2351.7199999999998</v>
       </c>
       <c r="E75">
         <v>69</v>
@@ -3395,7 +3535,7 @@
         <v>106</v>
       </c>
       <c r="H75">
-        <v>2351.72</v>
+        <v>2351.7199999999998</v>
       </c>
       <c r="I75" t="s">
         <v>133</v>
@@ -3407,7 +3547,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3442,7 +3582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3477,7 +3617,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3512,7 +3652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3547,7 +3687,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3582,7 +3722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3617,7 +3757,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3649,7 +3789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3681,7 +3821,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3689,7 +3829,7 @@
         <v>64</v>
       </c>
       <c r="D84">
-        <v>9506985.199999999</v>
+        <v>9506985.1999999993</v>
       </c>
       <c r="E84">
         <v>34</v>
@@ -3701,7 +3841,7 @@
         <v>110</v>
       </c>
       <c r="H84">
-        <v>65217918.47</v>
+        <v>65217918.469999999</v>
       </c>
       <c r="I84" t="s">
         <v>138</v>
@@ -3713,7 +3853,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3721,7 +3861,7 @@
         <v>65</v>
       </c>
       <c r="D85">
-        <v>9506985.199999999</v>
+        <v>9506985.1999999993</v>
       </c>
       <c r="E85">
         <v>34</v>
@@ -3733,7 +3873,7 @@
         <v>101</v>
       </c>
       <c r="H85">
-        <v>65217918.47</v>
+        <v>65217918.469999999</v>
       </c>
       <c r="I85" t="s">
         <v>138</v>
@@ -3745,7 +3885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3777,7 +3917,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3812,7 +3952,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3844,7 +3984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3879,7 +4019,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3914,7 +4054,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3946,7 +4086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3978,7 +4118,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -4010,7 +4150,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -4042,7 +4182,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -4074,7 +4214,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -4106,7 +4246,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -4138,7 +4278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -4170,7 +4310,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -4202,7 +4342,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -4237,7 +4377,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4248,7 +4388,7 @@
         <v>64</v>
       </c>
       <c r="D101">
-        <v>5959047.86</v>
+        <v>5959047.8600000003</v>
       </c>
       <c r="E101">
         <v>34</v>
@@ -4272,7 +4412,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -4304,7 +4444,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -4336,7 +4476,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -4344,7 +4484,7 @@
         <v>65</v>
       </c>
       <c r="D104">
-        <v>5959047.86</v>
+        <v>5959047.8600000003</v>
       </c>
       <c r="E104">
         <v>34</v>
@@ -4368,7 +4508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -4400,7 +4540,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -4435,7 +4575,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -4458,7 +4598,7 @@
         <v>113</v>
       </c>
       <c r="H107">
-        <v>24338850.15</v>
+        <v>24338850.149999999</v>
       </c>
       <c r="I107" t="s">
         <v>145</v>
@@ -4470,7 +4610,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -4502,7 +4642,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -4534,7 +4674,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -4554,7 +4694,7 @@
         <v>110</v>
       </c>
       <c r="H110">
-        <v>24338850.15</v>
+        <v>24338850.149999999</v>
       </c>
       <c r="I110" t="s">
         <v>145</v>
@@ -4566,7 +4706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -4598,7 +4738,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -4606,7 +4746,7 @@
         <v>64</v>
       </c>
       <c r="D112">
-        <v>4966343.69</v>
+        <v>4966343.6900000004</v>
       </c>
       <c r="E112">
         <v>34</v>
@@ -4618,7 +4758,7 @@
         <v>101</v>
       </c>
       <c r="H112">
-        <v>34069117.71</v>
+        <v>34069117.710000001</v>
       </c>
       <c r="I112" t="s">
         <v>146</v>
@@ -4630,7 +4770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -4641,7 +4781,7 @@
         <v>65</v>
       </c>
       <c r="D113">
-        <v>4966343.69</v>
+        <v>4966343.6900000004</v>
       </c>
       <c r="E113">
         <v>34</v>
@@ -4653,7 +4793,7 @@
         <v>84</v>
       </c>
       <c r="H113">
-        <v>34069117.71</v>
+        <v>34069117.710000001</v>
       </c>
       <c r="I113" t="s">
         <v>146</v>
@@ -4665,7 +4805,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -4697,7 +4837,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -4729,7 +4869,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -4761,7 +4901,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -4793,7 +4933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -4825,7 +4965,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -4857,7 +4997,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -4889,7 +5029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -4924,7 +5064,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -4932,7 +5072,7 @@
         <v>64</v>
       </c>
       <c r="D122">
-        <v>562932.9399999999</v>
+        <v>562932.93999999994</v>
       </c>
       <c r="E122">
         <v>69</v>
@@ -4944,7 +5084,7 @@
         <v>100</v>
       </c>
       <c r="H122">
-        <v>562932.9399999999</v>
+        <v>562932.93999999994</v>
       </c>
       <c r="I122" t="s">
         <v>150</v>
@@ -4956,7 +5096,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -4964,7 +5104,7 @@
         <v>65</v>
       </c>
       <c r="D123">
-        <v>72658.53999999999</v>
+        <v>72658.539999999994</v>
       </c>
       <c r="E123">
         <v>53</v>
@@ -4976,7 +5116,7 @@
         <v>77</v>
       </c>
       <c r="H123">
-        <v>562932.9399999999</v>
+        <v>562932.93999999994</v>
       </c>
       <c r="I123" t="s">
         <v>150</v>
@@ -4988,7 +5128,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -5020,7 +5160,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -5055,7 +5195,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -5087,7 +5227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -5122,7 +5262,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -5142,7 +5282,7 @@
         <v>116</v>
       </c>
       <c r="H128">
-        <v>274.4</v>
+        <v>274.39999999999998</v>
       </c>
       <c r="I128" t="s">
         <v>153</v>
@@ -5154,7 +5294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -5174,7 +5314,7 @@
         <v>116</v>
       </c>
       <c r="H129">
-        <v>274.4</v>
+        <v>274.39999999999998</v>
       </c>
       <c r="I129" t="s">
         <v>153</v>
@@ -5186,7 +5326,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -5206,7 +5346,7 @@
         <v>71</v>
       </c>
       <c r="H130">
-        <v>274.4</v>
+        <v>274.39999999999998</v>
       </c>
       <c r="I130" t="s">
         <v>153</v>
@@ -5218,7 +5358,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -5250,7 +5390,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -5282,7 +5422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -5314,7 +5454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -5346,7 +5486,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -5378,7 +5518,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -5410,7 +5550,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -5442,7 +5582,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -5474,7 +5614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -5506,7 +5646,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -5538,7 +5678,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -5570,7 +5710,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -5602,7 +5742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -5634,7 +5774,26 @@
         <v>7</v>
       </c>
     </row>
+    <row r="146" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L146" s="2">
+        <f>SUM(L21:L40)</f>
+        <v>1506744.3411078714</v>
+      </c>
+    </row>
+    <row r="147" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L147" s="3">
+        <f>L146-L27</f>
+        <v>1506735.131195335</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:K143">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="28368"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>